--- a/farukyasar/evidence.xlsx
+++ b/farukyasar/evidence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasar\OneDrive\Masaüstü\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B634F04B-41AC-4E5E-9585-EFD672144E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C291046E-8854-4D6E-AF2A-45DEFF0A8824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="40">
   <si>
     <t>TxHash</t>
   </si>
@@ -79,24 +79,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -140,6 +122,48 @@
   </si>
   <si>
     <t>iaa1pa08ws4mhvp2qcpz5yh4yfqu0rj8hzxwv8fpgz</t>
+  </si>
+  <si>
+    <t>8FBBE265043441D4654C54044B31D166A2CE0F0F16CA92C32DA5E56E766FEED1</t>
+  </si>
+  <si>
+    <t>tibi1</t>
+  </si>
+  <si>
+    <t>F48043118DEB8A98C318D895D671F68B27A9D17AA1D5AE8E513802369345810D</t>
+  </si>
+  <si>
+    <t>nftid1</t>
+  </si>
+  <si>
+    <t>nftid2</t>
+  </si>
+  <si>
+    <t>6D0E6F0F6BD7C857F6E7FF540B2F69E249F705A6CFD89465412C463252BF8C14</t>
+  </si>
+  <si>
+    <t>DF3AE722476A91A84BC41FD43CB6E9896FA3C9A6CA6C14714129469F6530F91D</t>
+  </si>
+  <si>
+    <t>juno1zt2dzqmjhs0j8jq9p3cm4tfc4t7sn2yqdfd7w2v9ehp5whjryhjscafqjl</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>8E041D74DC4B1F7B0023B2E2CFDD5DFD57505C1349F089DFC2F40BE825B0EA76</t>
+  </si>
+  <si>
+    <t>ibc/A5A1D73039E25D1EF9DE71CC03AB9930FBF78E712F3A1E0A508BCAC375154B82</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>BD9ADD4C09B17E0E9C8B016F12BE75838EDB9050D16E4B213B70F3773FBA1A32</t>
+  </si>
+  <si>
+    <t>B5D8C5D8FECB63DA706602823049A19E458AE7E1BD79AEEECC525556633FB1A5</t>
   </si>
 </sst>
 </file>
@@ -526,8 +550,8 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,51 +568,51 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1026,11 +1050,14 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1043,10 +1070,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1287,13 +1314,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1310,13 +1340,24 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1331,11 +1372,14 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1356,16 +1400,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1380,11 +1424,14 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1405,16 +1452,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1429,11 +1476,14 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1454,16 +1504,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1528,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1504,16 +1556,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/farukyasar/evidence.xlsx
+++ b/farukyasar/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasar\OneDrive\Masaüstü\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C291046E-8854-4D6E-AF2A-45DEFF0A8824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED8F02-CB3C-4ED5-8C69-ED619FFA05D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10275" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1425,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1529,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,7 +1559,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>

--- a/farukyasar/evidence.xlsx
+++ b/farukyasar/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasar\OneDrive\Masaüstü\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Farukyasar - Dosyalar\Testnet\GON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED8F02-CB3C-4ED5-8C69-ED619FFA05D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5950754B-5E36-4B32-A89B-F8EAFE2C3192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10275" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="51">
   <si>
     <t>TxHash</t>
   </si>
@@ -73,12 +73,6 @@
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -164,6 +158,45 @@
   </si>
   <si>
     <t>B5D8C5D8FECB63DA706602823049A19E458AE7E1BD79AEEECC525556633FB1A5</t>
+  </si>
+  <si>
+    <t>A5A1D73039E25D1EF9DE71CC03AB9930FBF78E712F3A1E0A508BCAC375154B82</t>
+  </si>
+  <si>
+    <t>nftid3</t>
+  </si>
+  <si>
+    <t>ibc/21FD66695D438DBAA7B0D7F5481B8A2607FA07F2096813596E8309972DD15934</t>
+  </si>
+  <si>
+    <t>nftid4</t>
+  </si>
+  <si>
+    <t>ibc/AFA1F6629909AAB21C6C0DD21E09C9D67EF10AE243FB505F95C70228CDC59AD3</t>
+  </si>
+  <si>
+    <t>gtx1</t>
+  </si>
+  <si>
+    <t>ibc/E6F1A69E64000280C4D40368878997295CE66CADE70DA8B8B95B44CC8DB678B3</t>
+  </si>
+  <si>
+    <t>ibc/D19CFBE5B64F15B0BA1E860EAFA0D46C642ACEAD5E40BE6A6BC25B8949D0FB06</t>
+  </si>
+  <si>
+    <t>rub</t>
+  </si>
+  <si>
+    <t>ibc/309B723164548526FE7BA627A0C2D769AC3034FF14F00D38FADDB0D43E2F33CF</t>
+  </si>
+  <si>
+    <t>leno</t>
+  </si>
+  <si>
+    <t>ibc/F507497B16BCB9E0FABE16C77DB8FA034B33EED259440A10194C8BF2E8D40914</t>
+  </si>
+  <si>
+    <t>logi</t>
   </si>
 </sst>
 </file>
@@ -551,71 +584,71 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <col min="6" max="6" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E3"/>
     </row>
   </sheetData>
@@ -630,15 +663,17 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="82.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -646,12 +681,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -666,15 +701,17 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="84.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -682,12 +719,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -702,15 +739,17 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="82.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -718,12 +757,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -738,15 +777,17 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="82.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -754,12 +795,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -776,13 +817,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -798,12 +839,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -822,13 +863,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,7 +877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -844,12 +885,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -868,13 +909,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,7 +923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -890,12 +931,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -914,13 +955,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -936,12 +977,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -960,13 +1001,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -982,12 +1023,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1006,13 +1047,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,7 +1061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1028,12 +1069,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1054,13 +1095,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="83.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,12 +1109,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1090,13 +1131,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1112,12 +1153,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1136,13 +1177,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1158,12 +1199,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1182,22 +1223,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1216,22 +1257,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1250,22 +1291,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1284,22 +1325,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1320,14 +1361,14 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1338,26 +1379,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1376,15 +1417,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="82.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="82.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,18 +1439,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1428,15 +1469,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="85" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="87" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1450,18 +1491,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1480,15 +1521,15 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="84.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="84.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1502,18 +1543,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1528,19 +1569,19 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1554,18 +1595,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1580,15 +1621,18 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1596,12 +1640,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1616,15 +1660,17 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1632,12 +1678,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/farukyasar/evidence.xlsx
+++ b/farukyasar/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Farukyasar - Dosyalar\Testnet\GON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5950754B-5E36-4B32-A89B-F8EAFE2C3192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4A000D-BD53-4F2F-8776-54AFF247C373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="81">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,15 +58,6 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
@@ -197,13 +188,112 @@
   </si>
   <si>
     <t>logi</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>09B56EFFCCDE450BC6336232DBD67CE79F036406D2F30B4BCD193202C7DADE1D</t>
+  </si>
+  <si>
+    <t>A415959575F36A8CFDA4FDD8070A695247CD82E0CCB7B9191526FC85E77FB592</t>
+  </si>
+  <si>
+    <t>6C15C40C5798D5ACFDC91C589B5AC7683E0CC9634AF76AC39980E397CB35B401</t>
+  </si>
+  <si>
+    <t>38F6EA981DC6CD170FA5A887AECB9E5F4133341416DE295AF478F487C229E51A</t>
+  </si>
+  <si>
+    <t>395FD50FF128756EA25FA8D2BA08B927E57D70F12547174EF58F699C1A64FA4F</t>
+  </si>
+  <si>
+    <t>67A32DE58E231AED7B579C78D308933DF681401438F1F9E3FEFACF622EEC5875</t>
+  </si>
+  <si>
+    <t>9CA1035A7FBCB28BEE31432AB834227426B56424801320C71584B5C117ED897E</t>
+  </si>
+  <si>
+    <t>E82ECAA9509D6B039D6EDE96749FE04D11B0AC2D36FB764A8E4BC039549EA102</t>
+  </si>
+  <si>
+    <t>5C74F64F24F7081D6DDDA0BD348A730D6439BF84ECFF5BFC45DE0ABE1CDA8674</t>
+  </si>
+  <si>
+    <t>DDD090C872BB67BCCADB8212A7C14C06B8D7629AB607D1266F4DDEC3C1D4A293</t>
+  </si>
+  <si>
+    <t>B6ED9DF94E07EF29EFDDE28238961872D06E708867EFB143D44E3F840131305E</t>
+  </si>
+  <si>
+    <t>8DC34A717633E7B00BC8E6799D89B986566AB8C0C3CDD91848B6A11618FC3EFD</t>
+  </si>
+  <si>
+    <t>C4275869007C27F8E15BE53DF12DA4A42CBC155BCEE8A8C4FC1DED088F3D7B5E</t>
+  </si>
+  <si>
+    <t>8E1A07C1166B1E055A2C234769DEA221BBB2E0E00E16748CBC6F868A74AA3817</t>
+  </si>
+  <si>
+    <t>9FCA69E38594313CCE97EC9F0C86B96009D6B4D5B303AB5BC64DCD6AE873AF88</t>
+  </si>
+  <si>
+    <t>6CE41F7F9AB59CB40D8A5DD7B701C443215481203509820A9D6EDA82A7ECBE28</t>
+  </si>
+  <si>
+    <t>ECE012AEF70F7F1F75AB275DCD7AC1501210C801CC9CBE2BCBEE11FAC97095D0</t>
+  </si>
+  <si>
+    <t>02601586E5581FF101D1154E3402D51C16DBB708348488389D83D97A3A609846</t>
+  </si>
+  <si>
+    <t>E5A48D0B0307EC31928491B7DC19A5FF41D36EEE0E8B26EE95030A7C1BC11053</t>
+  </si>
+  <si>
+    <t>B161F51D809EDB5F4E8697DEA1ECAA38738F7E7E38E3DB4D3EE9469E987F80C8</t>
+  </si>
+  <si>
+    <t>3183437B65E0E96A0B36D37F4531A45A8DA888A72C8D6F15C284C86BCAA93F91</t>
+  </si>
+  <si>
+    <t>76B50DF9FBC8BF74352FFA89531B046553CA1209A5B2BF39BC2AE3E9D387AF81</t>
+  </si>
+  <si>
+    <t>B37A3C46601AFBAC59176C054A67E2C7B11582C7AFE6AE8D116DF86F7E0AC80A</t>
+  </si>
+  <si>
+    <t>B5890BD105E89F9F8BD01CC58D5037827890E5CB9CB999821A41BFB5BA9484CD</t>
+  </si>
+  <si>
+    <t>0BF73F00278571FF93595B33CD4D16DF828E646CA40F9FCEE9B6E2049538B166</t>
+  </si>
+  <si>
+    <t>E079BA594D88FE6F24627B783B9A159DD52926197D47C313FEE199FF01014063</t>
+  </si>
+  <si>
+    <t>F5A4E682B31D311B0E6294F1B44A49DFCBD01277473254A978B5BDE70B5858C7</t>
+  </si>
+  <si>
+    <t>F049A93DC7CE66F23FAAD248669D669AE78C37D9F847D944CB47C55981C5B0B2</t>
+  </si>
+  <si>
+    <t>9B4A0C7CEE82A79D3C30C9128C45C0D3F54D3E742AB0925CEE7E6F2267FF25EB</t>
+  </si>
+  <si>
+    <t>RPC ISSUE -retrying</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +306,27 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="3">
@@ -262,10 +373,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -276,9 +396,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="9" xr:uid="{B9D84F6F-8F69-4B6B-A2BE-AF568C5FF27E}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9F3E15CD-96BC-4DB3-A3F6-04FB95054CAE}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{EFD46A6A-5674-4FDA-9CE6-9CC45D9FA52C}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{1587F238-3F7C-482A-A390-97CFB0773047}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{2DEDE1CA-013C-4E70-8C45-3B2BEF42A35E}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{ADF31E09-B75D-4F5B-9D9F-57DE5CF445B9}"/>
+    <cellStyle name="Normal 7" xfId="6" xr:uid="{3CAA5471-0927-413C-8084-D36230B28BE5}"/>
+    <cellStyle name="Normal 8" xfId="7" xr:uid="{55A3912C-E604-4949-8AA5-13CD36B3C7A3}"/>
+    <cellStyle name="Normal 9" xfId="8" xr:uid="{C62805F9-9F06-44E6-8513-DF89049F7A08}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -583,8 +745,8 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,51 +763,51 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -675,10 +837,86 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="84.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="82.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -686,58 +924,244 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="84.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="79.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="79.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -745,81 +1169,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="82.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -832,40 +1182,56 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
+      <c r="A3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+      <c r="A4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="81.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -878,40 +1244,56 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
+      <c r="A3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+      <c r="A4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -924,159 +1306,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
+      <c r="A3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1106,15 +1364,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1127,14 +1385,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1146,21 +1406,51 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
+      <c r="A3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1173,13 +1463,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1192,21 +1484,51 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
+      <c r="A3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1221,7 +1543,7 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1373,32 +1695,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1430,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1441,16 +1763,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1482,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1493,16 +1815,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1534,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1545,16 +1867,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1586,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1597,16 +1919,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1634,18 +1956,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1672,18 +1994,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/farukyasar/evidence.xlsx
+++ b/farukyasar/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Farukyasar - Dosyalar\Testnet\GON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4A000D-BD53-4F2F-8776-54AFF247C373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF40C8EA-CDB5-47BB-B915-48DC322E5A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="A4" sheetId="5" r:id="rId5"/>
     <sheet name="A5" sheetId="6" r:id="rId6"/>
     <sheet name="A6" sheetId="7" r:id="rId7"/>
-    <sheet name="A7" sheetId="8" r:id="rId8"/>
-    <sheet name="A8" sheetId="9" r:id="rId9"/>
+    <sheet name="A8" sheetId="9" r:id="rId8"/>
+    <sheet name="A7" sheetId="8" r:id="rId9"/>
     <sheet name="A9" sheetId="10" r:id="rId10"/>
     <sheet name="A10" sheetId="11" r:id="rId11"/>
     <sheet name="A11" sheetId="12" r:id="rId12"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
   <si>
     <t>TxHash</t>
   </si>
@@ -151,9 +151,6 @@
     <t>B5D8C5D8FECB63DA706602823049A19E458AE7E1BD79AEEECC525556633FB1A5</t>
   </si>
   <si>
-    <t>A5A1D73039E25D1EF9DE71CC03AB9930FBF78E712F3A1E0A508BCAC375154B82</t>
-  </si>
-  <si>
     <t>nftid3</t>
   </si>
   <si>
@@ -286,7 +283,22 @@
     <t>9B4A0C7CEE82A79D3C30C9128C45C0D3F54D3E742AB0925CEE7E6F2267FF25EB</t>
   </si>
   <si>
-    <t>RPC ISSUE -retrying</t>
+    <t>70C68A395EC1F1A3AC25A77A08705C95794B9C4B2768AA29043FEB63D3CB30ED</t>
+  </si>
+  <si>
+    <t>4CB1FA3A1E3BD5E9B1B25EDF961BFA1B886FB96DC5A2C2499B756B68912E96F2</t>
+  </si>
+  <si>
+    <t>9C0E829236B1C76A13F6E80AD8958357046873346CF9B25E02248F60EEA80318</t>
+  </si>
+  <si>
+    <t>EE82BF7998F6A07FCC1FE36852E3ACCA2D3DEF69399BD20C1E366FD21F2B95F7</t>
+  </si>
+  <si>
+    <t>2E66D8AC1CF4424BB558A9E02FEADD774B7B97981E7628AF7BF6958080317B89</t>
+  </si>
+  <si>
+    <t>9534E2CF897A6383A5451265644823C3C63759D5F7EBAA94C4554A135D0CAEFF</t>
   </si>
 </sst>
 </file>
@@ -373,7 +385,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
@@ -384,8 +396,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -429,10 +443,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="8" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="11" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="9" xr:uid="{B9D84F6F-8F69-4B6B-A2BE-AF568C5FF27E}"/>
+    <cellStyle name="Normal 11" xfId="10" xr:uid="{3F4851DD-1F1A-4F6F-92B7-27F941B1D810}"/>
+    <cellStyle name="Normal 12" xfId="11" xr:uid="{7316C6A6-3048-4612-9DDC-CE88EF724CB8}"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{9F3E15CD-96BC-4DB3-A3F6-04FB95054CAE}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{EFD46A6A-5674-4FDA-9CE6-9CC45D9FA52C}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{1587F238-3F7C-482A-A390-97CFB0773047}"/>
@@ -745,23 +764,23 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="6" max="6" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -787,7 +806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -810,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E3"/>
     </row>
   </sheetData>
@@ -829,13 +848,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="82.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -843,12 +862,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -867,13 +886,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="84.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -881,12 +900,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -905,13 +924,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="82.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -919,12 +938,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -943,13 +962,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="82.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -957,12 +976,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -981,13 +1000,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="80.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,36 +1014,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1043,13 +1062,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="79.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="79.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,36 +1076,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1105,13 +1124,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="79.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,33 +1138,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>29</v>
@@ -1167,13 +1186,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="80.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,33 +1200,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>72</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>29</v>
@@ -1229,13 +1248,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="81.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1243,36 +1262,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1288,16 +1307,16 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,33 +1324,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>32</v>
@@ -1353,13 +1372,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="83.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1386,557 +1405,595 @@
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="81.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="82.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="84.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1947,14 +2004,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1962,50 +2019,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/farukyasar/evidence.xlsx
+++ b/farukyasar/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Farukyasar - Dosyalar\Testnet\GON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF40C8EA-CDB5-47BB-B915-48DC322E5A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8792A441-ABF0-438B-B743-7293AE1A0D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,24 @@
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="89">
   <si>
     <t>TxHash</t>
   </si>
@@ -299,6 +311,18 @@
   </si>
   <si>
     <t>9534E2CF897A6383A5451265644823C3C63759D5F7EBAA94C4554A135D0CAEFF</t>
+  </si>
+  <si>
+    <t>60147C0C2110526AA1F973DB1B433DE33838922CAC2736F583EF5212D298C512</t>
+  </si>
+  <si>
+    <t>2965A694F57D8B27E06929ABE0187F001564E1B132428EDB31291F0D7679D590</t>
+  </si>
+  <si>
+    <t>5DEB6B903E17FF87DDE3FC2753B18D3032DF430E5BFDFEF30DF8F562CF4BB88C</t>
+  </si>
+  <si>
+    <t>6E0DE9867401E7CA17989ECC6A353DCB98C8663DE93B5B0F458062605CB4181E</t>
   </si>
 </sst>
 </file>
@@ -399,7 +423,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -446,6 +470,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="11" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,8 +791,8 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1511,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1562,11 +1589,13 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1576,46 +1605,48 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
